--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="0" windowWidth="25600" windowHeight="9780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,13 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Joint modeling of cell and nuclear shape variation</t>
-  </si>
-  <si>
-    <t>Paper Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +242,22 @@
   </si>
   <si>
     <t>SBML to SBML-Spatial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +317,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,12 +345,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="37">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -356,6 +376,11 @@
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -369,6 +394,11 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -697,12 +727,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -758,6 +788,12 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
@@ -787,6 +823,12 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -816,6 +858,12 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -828,7 +876,7 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="b">
@@ -845,6 +893,12 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -874,6 +928,12 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -903,6 +963,12 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
       <c r="D7">
         <v>2</v>
       </c>
@@ -918,7 +984,7 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="b">
@@ -934,6 +1000,12 @@
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -964,6 +1036,12 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
       <c r="D9">
         <v>3</v>
       </c>
@@ -992,6 +1070,12 @@
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1025,6 +1109,12 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
       <c r="D11">
         <v>3</v>
       </c>
@@ -1054,6 +1144,12 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -1083,6 +1179,12 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
       <c r="D13">
         <v>3</v>
       </c>
@@ -1112,6 +1214,12 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -1141,6 +1249,12 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
       <c r="D15">
         <v>3</v>
       </c>
@@ -1170,6 +1284,12 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
       <c r="D16">
         <v>3</v>
       </c>
@@ -1199,6 +1319,12 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
       <c r="D17">
         <v>3</v>
       </c>
@@ -1228,6 +1354,12 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
       <c r="D18">
         <v>3</v>
       </c>
@@ -1257,6 +1389,12 @@
       <c r="A19" t="s">
         <v>12</v>
       </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
       <c r="D19">
         <v>3</v>
       </c>
@@ -1286,6 +1424,12 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
       <c r="D20">
         <v>3</v>
       </c>
@@ -1315,6 +1459,12 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
       <c r="D21">
         <v>3</v>
       </c>
@@ -1347,6 +1497,12 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
       <c r="D22">
         <v>3</v>
       </c>
@@ -1379,6 +1535,12 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
       <c r="D23">
         <v>3</v>
       </c>
@@ -1408,6 +1570,12 @@
       <c r="A24" t="s">
         <v>17</v>
       </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
       <c r="D24">
         <v>3</v>
       </c>
@@ -1440,6 +1608,12 @@
       <c r="A25" t="s">
         <v>18</v>
       </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
       <c r="D25">
         <v>3</v>
       </c>
@@ -1448,12 +1622,27 @@
       </c>
       <c r="F25" t="s">
         <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>19</v>
       </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
       <c r="D26">
         <v>3</v>
       </c>
@@ -1486,6 +1675,12 @@
       <c r="A27" t="s">
         <v>20</v>
       </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
       <c r="D27">
         <v>3</v>
       </c>
@@ -1515,6 +1710,12 @@
       <c r="A28" t="s">
         <v>21</v>
       </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
       <c r="D28">
         <v>3</v>
       </c>
@@ -1523,12 +1724,33 @@
       </c>
       <c r="F28" t="s">
         <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>22</v>
       </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
       <c r="D29">
         <v>3</v>
       </c>
@@ -1558,6 +1780,12 @@
       <c r="A30" t="s">
         <v>49</v>
       </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
       <c r="D30">
         <v>3</v>
       </c>
@@ -1587,6 +1815,12 @@
       <c r="A31" t="s">
         <v>50</v>
       </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
       <c r="D31">
         <v>3</v>
       </c>
@@ -1616,6 +1850,12 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
       <c r="D32">
         <v>3</v>
       </c>
@@ -1648,6 +1888,12 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
       <c r="D33">
         <v>3</v>
       </c>
@@ -1677,8 +1923,35 @@
       <c r="A34" t="s">
         <v>54</v>
       </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
       <c r="E34" t="s">
         <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1689,11 +1962,11 @@
         <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
@@ -1716,11 +1989,17 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>63</v>
       </c>
       <c r="E36" t="b">
@@ -1745,20 +2024,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>Protein pattern</t>
+  </si>
+  <si>
+    <t>TIFF</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>SBML</t>
+  </si>
+  <si>
+    <t>demo3Dimg2sbml</t>
   </si>
 </sst>
 </file>
@@ -262,8 +274,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -305,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -324,6 +338,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -342,6 +357,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,12 +687,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -685,7 +701,7 @@
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,8 +714,17 @@
       <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -712,8 +737,17 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -726,8 +760,17 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -740,8 +783,17 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -754,8 +806,17 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -768,24 +829,42 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -796,10 +875,19 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -808,12 +896,21 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -822,12 +919,21 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -838,10 +944,19 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -852,10 +967,19 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -866,10 +990,19 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -880,10 +1013,19 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
@@ -894,10 +1036,19 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -908,10 +1059,19 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -922,24 +1082,42 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -950,24 +1128,42 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -978,10 +1174,19 @@
       <c r="D21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -990,12 +1195,21 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -1004,54 +1218,90 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -1062,24 +1312,42 @@
       <c r="D27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
@@ -1090,10 +1358,19 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
@@ -1104,10 +1381,19 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -1118,10 +1404,19 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -1132,10 +1427,19 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
@@ -1144,12 +1448,21 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -1160,10 +1473,19 @@
       <c r="D34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -1172,11 +1494,21 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -690,9 +690,9 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizor/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="2" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,7 +224,46 @@
     <t>SBML</t>
   </si>
   <si>
-    <t>demo3Dimg2sbml</t>
+    <t>demo3D23</t>
+  </si>
+  <si>
+    <t>demo3D24</t>
+  </si>
+  <si>
+    <t>demo3D25</t>
+  </si>
+  <si>
+    <t>demo3D26???</t>
+  </si>
+  <si>
+    <t>demo3D27???</t>
+  </si>
+  <si>
+    <t>demo3D28</t>
+  </si>
+  <si>
+    <t>demo3D31???</t>
+  </si>
+  <si>
+    <t>demo3D32</t>
+  </si>
+  <si>
+    <t>demo3D33</t>
+  </si>
+  <si>
+    <t>demo3D34???</t>
+  </si>
+  <si>
+    <t>???demo3DDiffeoSynth_gmm</t>
+  </si>
+  <si>
+    <t>???demo3DDiffeoSynth_uniform</t>
+  </si>
+  <si>
+    <t>demo3Dtcell_synth???</t>
+  </si>
+  <si>
+    <t>demo3Dtcell_train???</t>
   </si>
 </sst>
 </file>
@@ -362,6 +409,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -687,21 +739,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -747,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -770,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -793,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -816,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -839,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -862,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -885,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -908,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -931,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -977,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1299,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1322,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1345,32 +1397,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
@@ -1379,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1388,12 +1440,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -1414,9 +1466,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -1425,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1437,9 +1489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
@@ -1451,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1460,9 +1512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -1471,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1480,12 +1532,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -1494,26 +1546,137 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1527,7 +1690,7 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1536,7 +1699,7 @@
     <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1617,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1695,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1724,7 +1887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1805,7 +1968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1883,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1909,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2094,7 +2257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2123,7 +2286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +2341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2259,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2337,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2363,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2392,7 +2555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2418,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2447,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2479,10 +2642,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaniqi/Desktop/CBD/gitlab_repos/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="18680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="18680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -181,12 +184,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>demo2D05</t>
-  </si>
-  <si>
-    <t>img2param_2D</t>
-  </si>
-  <si>
     <t>surface plot</t>
   </si>
   <si>
@@ -272,6 +269,12 @@
   </si>
   <si>
     <t>demo3D43</t>
+  </si>
+  <si>
+    <t>demo3D44</t>
+  </si>
+  <si>
+    <t>demo3D45</t>
   </si>
 </sst>
 </file>
@@ -1625,11 +1628,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1828,42 +1831,39 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1905,29 +1905,32 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1937,32 +1940,29 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1988,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -2020,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -2186,18 +2186,18 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <f>FALSE()</f>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2250,14 +2250,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <f>FALSE()</f>
@@ -2268,21 +2268,24 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -2312,12 +2315,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -2327,32 +2330,29 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>54</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -2362,36 +2362,39 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <f>FALSE()</f>
@@ -2402,31 +2405,28 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <f>FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <f>FALSE()</f>
@@ -2437,56 +2437,56 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <f>FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <f>FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -2500,8 +2500,8 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <f>TRUE()</f>
@@ -2518,22 +2518,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <f>TRUE()</f>
@@ -2544,13 +2544,13 @@
         <v>1</v>
       </c>
       <c r="H28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -2564,8 +2564,8 @@
         <v>1</v>
       </c>
       <c r="E29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F29" t="b">
         <f>TRUE()</f>
@@ -2581,8 +2581,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>60</v>
+      <c r="A30" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -2642,11 +2642,14 @@
       <c r="H31" t="b">
         <f>TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -2660,8 +2663,8 @@
         <v>1</v>
       </c>
       <c r="E32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <f>TRUE()</f>
@@ -2672,16 +2675,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>57</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -2691,8 +2691,8 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <f>TRUE()</f>
@@ -2709,11 +2709,14 @@
       <c r="H33" t="b">
         <f>FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -2727,76 +2730,65 @@
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
-        <f>FALSE()</f>
+        <f>NOT(C35)</f>
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <f>NOT(C36)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <f t="shared" ref="D36:D49" si="0">NOT(C36)</f>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2807,36 +2799,27 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="b">
-        <f t="shared" ref="D37:D50" si="0">NOT(C37)</f>
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" t="b">
+      <c r="C38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="b">
@@ -2846,7 +2829,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -2861,7 +2844,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
@@ -2876,7 +2859,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
@@ -2891,7 +2874,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>14</v>
@@ -2906,7 +2889,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -2921,7 +2904,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
@@ -2936,7 +2919,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
@@ -2951,77 +2934,90 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaniqi/Desktop/CBD/gitlab_repos/cellorganizer-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaniqi/Desktop/cellorganizer/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C35FB1B4-0ECE-4D48-84A6-9C9E5DA5EC87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="18680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
     <sheet name="v2.6" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -275,19 +276,46 @@
   </si>
   <si>
     <t>demo3D45</t>
+  </si>
+  <si>
+    <t>demo2D05</t>
+  </si>
+  <si>
+    <t>demo2D06</t>
+  </si>
+  <si>
+    <t>demo2D07</t>
+  </si>
+  <si>
+    <t>demo2D08</t>
+  </si>
+  <si>
+    <t>demo2D09</t>
+  </si>
+  <si>
+    <t>demo3D46</t>
+  </si>
+  <si>
+    <t>demo3D47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +340,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,6 +350,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -589,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1627,12 +1658,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,1151 +1701,956 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <f>FALSE()</f>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <f>NOT(C35)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="b">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="b">
-        <f t="shared" ref="D36:D49" si="0">NOT(C36)</f>
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
@@ -2823,13 +2659,27 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -2838,28 +2688,52 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
@@ -2868,13 +2742,23 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>14</v>
@@ -2883,13 +2767,17 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -2898,13 +2786,17 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
@@ -2913,13 +2805,17 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
@@ -2928,28 +2824,36 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
@@ -2958,70 +2862,225 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaniqi/Desktop/cellorganizer/cellorganizer-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Multimedia/Code/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C35FB1B4-0ECE-4D48-84A6-9C9E5DA5EC87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="1240" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="v2.6" sheetId="2" r:id="rId2"/>
+    <sheet name="v2.7.1" sheetId="4" r:id="rId2"/>
+    <sheet name="v2.7.0" sheetId="3" r:id="rId3"/>
+    <sheet name="v2.6" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -302,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -620,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1658,12 +1656,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1684,21 +1682,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1713,18 +1696,10 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1740,18 +1715,10 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1767,18 +1734,10 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1794,18 +1753,10 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1821,18 +1772,10 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1849,12 +1792,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -1947,18 +1886,10 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1974,18 +1905,10 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2001,21 +1924,11 @@
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2030,18 +1943,10 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2057,18 +1962,10 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2084,18 +1981,10 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2111,18 +2000,10 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2138,18 +2019,10 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2165,18 +2038,10 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2192,18 +2057,10 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2219,18 +2076,10 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2246,18 +2095,10 @@
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2273,18 +2114,10 @@
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2300,21 +2133,11 @@
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -2329,21 +2152,11 @@
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2358,18 +2171,10 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2385,21 +2190,11 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2414,18 +2209,10 @@
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2441,21 +2228,11 @@
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -2470,18 +2247,10 @@
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2497,18 +2266,10 @@
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2524,18 +2285,10 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2551,18 +2304,10 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2578,18 +2323,10 @@
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2605,21 +2342,11 @@
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -2634,18 +2361,10 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2661,21 +2380,11 @@
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -2690,21 +2399,11 @@
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -2719,15 +2418,9 @@
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
@@ -2744,15 +2437,9 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
@@ -3083,4 +2770,2860 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Multimedia/Code/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1240" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="v2.7.0" sheetId="3" r:id="rId3"/>
     <sheet name="v2.6" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -399,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -434,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -611,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,9 +621,9 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -679,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -707,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -735,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -763,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -791,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -819,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -847,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -875,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -903,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -931,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -959,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -987,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1351,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1435,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1491,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1519,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1547,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1603,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1652,6 +1647,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1660,16 +1660,16 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2253,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2538,7 +2538,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -2747,19 +2747,11 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2769,6 +2761,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2781,12 +2778,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2842,7 +2839,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2866,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2896,7 +2893,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2923,7 +2920,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2950,7 +2947,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2973,7 +2970,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2992,7 +2989,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -3011,7 +3008,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3030,7 +3027,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3049,7 +3046,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3076,7 +3073,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3103,7 +3100,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +3129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3159,7 +3156,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3213,7 +3210,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3240,7 +3237,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3264,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3294,7 +3291,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3321,7 +3318,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3348,7 +3345,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3375,7 +3372,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3402,7 +3399,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3487,7 +3484,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3516,7 +3513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3543,7 +3540,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3572,7 +3569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3599,7 +3596,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3626,7 +3623,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3653,7 +3650,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3680,7 +3677,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3707,7 +3704,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3763,7 +3760,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3792,7 +3789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3846,7 +3843,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3871,7 +3868,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3890,7 +3887,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3909,7 +3906,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3928,7 +3925,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3947,7 +3944,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3966,7 +3963,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3985,7 +3982,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -4004,7 +4001,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -4023,7 +4020,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -4042,7 +4039,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4061,7 +4058,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4080,7 +4077,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,7 +4096,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,7 +4115,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -4137,7 +4134,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -4156,7 +4153,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -4175,7 +4172,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -4197,6 +4194,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4209,12 +4211,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4270,7 +4272,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4297,7 +4299,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4324,7 +4326,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4351,7 +4353,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4378,7 +4380,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4401,7 +4403,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4420,7 +4422,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4439,7 +4441,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4458,7 +4460,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -4477,7 +4479,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4504,7 +4506,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4531,7 +4533,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4587,7 +4589,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4614,7 +4616,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4641,7 +4643,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4668,7 +4670,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4697,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4722,7 +4724,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4749,7 +4751,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4776,7 +4778,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4803,7 +4805,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4830,7 +4832,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4915,7 +4917,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4971,7 +4973,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -5027,7 +5029,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -5054,7 +5056,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5081,7 +5083,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5108,7 +5110,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5135,7 +5137,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -5191,7 +5193,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5274,7 +5276,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5299,7 +5301,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5318,7 +5320,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -5337,7 +5339,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -5356,7 +5358,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5375,7 +5377,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -5394,7 +5396,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,7 +5415,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -5432,7 +5434,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -5451,7 +5453,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -5470,7 +5472,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,7 +5491,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -5508,7 +5510,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -5527,7 +5529,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -5546,7 +5548,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -5565,7 +5567,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -5584,7 +5586,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -5603,7 +5605,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -5625,5 +5627,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{225A0C85-A24A-9E4D-BDD7-9EFB28D2DB5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="v2.7.1" sheetId="4" r:id="rId2"/>
-    <sheet name="v2.7.0" sheetId="3" r:id="rId3"/>
-    <sheet name="v2.6" sheetId="2" r:id="rId4"/>
+    <sheet name="v2.7.2" sheetId="5" r:id="rId2"/>
+    <sheet name="v2.7.1" sheetId="4" r:id="rId3"/>
+    <sheet name="v2.7.0" sheetId="3" r:id="rId4"/>
+    <sheet name="v2.6" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -295,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -606,14 +613,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -621,9 +628,9 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -674,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -702,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -730,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -758,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -786,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -814,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -842,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -870,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -898,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -926,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -954,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -982,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1318,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1656,20 +1663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A13D41-BB76-0A42-A152-BEE174488282}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1709,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1728,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1747,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1766,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1778,7 +1785,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1797,7 +1804,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1816,7 +1823,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1835,7 +1842,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1854,7 +1861,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -1873,7 +1880,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1899,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +1918,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1937,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +1956,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1968,7 +1975,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +1994,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2013,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2032,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2051,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2063,7 +2070,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2082,7 +2089,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2101,7 +2108,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,7 +2127,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2146,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2165,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2196,7 +2203,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2215,7 +2222,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2234,7 +2241,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2260,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2272,7 +2279,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,7 +2298,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2310,7 +2317,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2329,7 +2336,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2348,7 +2355,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2367,7 +2374,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2386,7 +2393,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2405,7 +2412,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2424,7 +2431,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,7 +2450,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2462,7 +2469,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2481,7 +2488,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2507,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2519,7 +2526,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2538,7 +2545,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2557,7 +2564,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2583,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2595,7 +2602,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2614,7 +2621,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2633,7 +2640,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2652,7 +2659,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2671,7 +2678,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -2690,7 +2697,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2709,7 +2716,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -2728,7 +2735,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -2747,7 +2754,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2761,29 +2768,24 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2796,23 +2798,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2825,21 +2812,13 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2852,21 +2831,13 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2879,21 +2850,13 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2906,21 +2869,13 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2933,21 +2888,13 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2961,16 +2908,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2989,7 +2932,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -3008,7 +2951,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3027,7 +2970,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3046,7 +2989,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3059,21 +3002,13 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3086,21 +3021,13 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3113,23 +3040,13 @@
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3142,21 +3059,13 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3169,21 +3078,13 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3196,21 +3097,13 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3223,21 +3116,13 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3250,21 +3135,13 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3277,21 +3154,13 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3304,21 +3173,13 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3331,21 +3192,13 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3358,21 +3211,13 @@
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3385,21 +3230,13 @@
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3412,23 +3249,13 @@
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3441,23 +3268,13 @@
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3470,21 +3287,13 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3497,23 +3306,13 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3526,21 +3325,13 @@
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3553,23 +3344,13 @@
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3582,21 +3363,13 @@
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3609,21 +3382,13 @@
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3636,21 +3401,13 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3663,21 +3420,13 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3690,21 +3439,13 @@
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3717,23 +3458,13 @@
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3746,21 +3477,13 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3773,23 +3496,13 @@
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3802,23 +3515,13 @@
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3831,19 +3534,13 @@
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3856,19 +3553,13 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3887,7 +3578,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3906,7 +3597,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3925,7 +3616,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3944,7 +3635,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3955,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3963,7 +3654,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3982,7 +3673,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -4001,7 +3692,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -4020,7 +3711,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -4039,7 +3730,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4058,7 +3749,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4077,7 +3768,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4096,7 +3787,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -4115,7 +3806,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -4134,7 +3825,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -4153,7 +3844,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -4172,19 +3863,11 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4203,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -4211,12 +3894,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +3928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +3955,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +3982,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4009,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4036,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4380,7 +4063,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4403,7 +4086,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4422,7 +4105,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4441,7 +4124,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4460,7 +4143,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -4479,7 +4162,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4506,7 +4189,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4533,7 +4216,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4562,7 +4245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4589,7 +4272,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4616,7 +4299,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4643,7 +4326,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,7 +4353,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4697,7 +4380,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4724,7 +4407,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4751,7 +4434,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4778,7 +4461,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4805,7 +4488,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4832,7 +4515,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4861,7 +4544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4890,7 +4573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4917,7 +4600,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4946,7 +4629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4973,7 +4656,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -5002,7 +4685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -5029,7 +4712,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -5056,7 +4739,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5083,7 +4766,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5110,7 +4793,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +4820,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5166,7 +4849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -5193,7 +4876,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -5222,7 +4905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -5251,7 +4934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5276,7 +4959,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,7 +4984,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5320,7 +5003,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -5339,7 +5022,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -5358,7 +5041,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5377,7 +5060,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -5396,7 +5079,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,7 +5098,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -5434,7 +5117,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -5453,7 +5136,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -5472,7 +5155,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,7 +5174,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -5510,7 +5193,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -5529,7 +5212,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -5548,7 +5231,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -5567,7 +5250,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -5586,7 +5269,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -5605,7 +5288,1440 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{225A0C85-A24A-9E4D-BDD7-9EFB28D2DB5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="v2.7.2" sheetId="5" r:id="rId2"/>
-    <sheet name="v2.7.1" sheetId="4" r:id="rId3"/>
-    <sheet name="v2.7.0" sheetId="3" r:id="rId4"/>
-    <sheet name="v2.6" sheetId="2" r:id="rId5"/>
+    <sheet name="v2.8.0" sheetId="6" r:id="rId1"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId2"/>
+    <sheet name="v2.7.2" sheetId="5" r:id="rId3"/>
+    <sheet name="v2.7.1" sheetId="4" r:id="rId4"/>
+    <sheet name="v2.7.0" sheetId="3" r:id="rId5"/>
+    <sheet name="v2.6" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -302,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -613,24 +608,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,1017 +641,1084 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E30" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D35" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1663,20 +1728,1062 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A13D41-BB76-0A42-A152-BEE174488282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +2816,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1728,7 +2835,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +2854,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +2873,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +2892,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1804,7 +2911,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1823,7 +2930,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +2949,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1861,7 +2968,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -1880,7 +2987,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +3006,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +3025,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1937,7 +3044,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +3063,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1975,7 +3082,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1994,7 +3101,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +3120,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2032,7 +3139,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +3158,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +3177,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,7 +3196,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2108,7 +3215,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +3234,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2146,7 +3253,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +3272,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2184,7 +3291,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +3310,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +3329,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +3348,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2260,7 +3367,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2279,7 +3386,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2298,7 +3405,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +3424,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +3443,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,7 +3462,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2374,7 +3481,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2393,7 +3500,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2412,7 +3519,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2431,7 +3538,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +3557,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,7 +3576,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2488,7 +3595,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2507,7 +3614,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2526,7 +3633,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2545,7 +3652,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2564,7 +3671,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -2583,7 +3690,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2602,7 +3709,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2621,7 +3728,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2640,7 +3747,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2659,7 +3766,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2678,7 +3785,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -2697,7 +3804,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2716,7 +3823,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -2735,7 +3842,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -2754,7 +3861,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2767,12 +3874,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2780,12 +3891,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +3929,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +3948,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +3967,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2875,7 +3986,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2894,7 +4005,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2913,7 +4024,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,7 +4043,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -2951,7 +4062,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -2970,7 +4081,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2989,7 +4100,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +4119,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3027,7 +4138,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3046,7 +4157,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3065,7 +4176,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +4195,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +4214,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,7 +4233,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3141,7 +4252,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3160,7 +4271,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3179,7 +4290,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3198,7 +4309,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3217,7 +4328,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3236,7 +4347,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +4366,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3274,7 +4385,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +4404,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3312,7 +4423,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +4442,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3350,7 +4461,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3369,7 +4480,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3388,7 +4499,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3407,7 +4518,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3426,7 +4537,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3445,7 +4556,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3464,7 +4575,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3483,7 +4594,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3502,7 +4613,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +4632,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3540,7 +4651,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3559,7 +4670,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3578,7 +4689,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3597,7 +4708,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3616,7 +4727,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3635,7 +4746,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3654,7 +4765,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3673,7 +4784,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3692,7 +4803,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,7 +4822,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -3730,7 +4841,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3749,7 +4860,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -3768,7 +4879,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3787,7 +4898,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -3806,7 +4917,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -3825,7 +4936,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -3844,7 +4955,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -3863,7 +4974,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3876,1440 +4987,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I58"/>
-  <sheetViews>
-    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5319,7 +4996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5327,12 +5004,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5361,7 +5038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5388,7 +5065,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5092,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5442,7 +5119,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5469,7 +5146,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5496,7 +5173,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -5519,7 +5196,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -5538,7 +5215,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -5557,7 +5234,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -5576,7 +5253,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -5595,7 +5272,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5622,7 +5299,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5649,7 +5326,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5678,7 +5355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5705,7 +5382,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -5732,7 +5409,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5759,7 +5436,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5786,7 +5463,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5490,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5840,7 +5517,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5867,7 +5544,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5894,7 +5571,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5921,7 +5598,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5948,7 +5625,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -5977,7 +5654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -6006,7 +5683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -6033,7 +5710,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -6062,7 +5739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -6089,7 +5766,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -6118,7 +5795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -6145,7 +5822,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -6172,7 +5849,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -6199,7 +5876,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -6226,7 +5903,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -6253,7 +5930,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -6282,7 +5959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -6309,7 +5986,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -6338,7 +6015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6367,7 +6044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -6392,7 +6069,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -6417,7 +6094,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6436,7 +6113,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6455,7 +6132,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -6474,7 +6151,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6493,7 +6170,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -6512,7 +6189,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -6531,7 +6208,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -6550,7 +6227,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -6569,7 +6246,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -6588,7 +6265,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6607,7 +6284,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,7 +6303,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -6645,7 +6322,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -6664,7 +6341,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -6683,7 +6360,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -6702,7 +6379,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -6721,7 +6398,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -6742,7 +6419,1438 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizer/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="v2.8.0" sheetId="6" r:id="rId1"/>
@@ -15,8 +20,11 @@
     <sheet name="v2.7.0" sheetId="3" r:id="rId5"/>
     <sheet name="v2.6" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -292,6 +300,45 @@
   </si>
   <si>
     <t>demo3D47</t>
+  </si>
+  <si>
+    <t>demo3D48</t>
+  </si>
+  <si>
+    <t>demo3D49</t>
+  </si>
+  <si>
+    <t>demo3D50</t>
+  </si>
+  <si>
+    <t>demo3D51</t>
+  </si>
+  <si>
+    <t>demo3D52</t>
+  </si>
+  <si>
+    <t>demo3D53</t>
+  </si>
+  <si>
+    <t>demo3D54</t>
+  </si>
+  <si>
+    <t>demo3D55</t>
+  </si>
+  <si>
+    <t>demo3D56</t>
+  </si>
+  <si>
+    <t>demo3D57</t>
+  </si>
+  <si>
+    <t>demo3D58</t>
+  </si>
+  <si>
+    <t>demo3D59</t>
+  </si>
+  <si>
+    <t>demo3D60</t>
   </si>
 </sst>
 </file>
@@ -608,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,19 +663,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -661,7 +708,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -680,7 +727,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +746,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,7 +765,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -737,7 +784,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -756,7 +803,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -775,7 +822,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -794,7 +841,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -813,7 +860,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -832,7 +879,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -851,7 +898,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -870,7 +917,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -889,7 +936,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -908,7 +955,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -927,7 +974,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -946,7 +993,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -965,7 +1012,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,7 +1031,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1050,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1069,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1088,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1107,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1079,7 +1126,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1145,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1117,7 +1164,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1183,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1202,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1221,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1240,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1259,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1278,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1297,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1269,7 +1316,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1288,7 +1335,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -1307,7 +1354,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -1326,7 +1373,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1392,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -1364,7 +1411,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -1383,7 +1430,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -1402,7 +1449,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1421,7 +1468,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -1440,7 +1487,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -1459,7 +1506,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -1478,7 +1525,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1544,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -1516,7 +1563,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -1535,7 +1582,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -1554,7 +1601,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -1573,7 +1620,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -1592,7 +1639,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -1611,7 +1658,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -1630,7 +1677,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -1649,7 +1696,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -1668,7 +1715,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -1687,7 +1734,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -1706,24 +1753,209 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1736,9 +1968,9 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2013,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2041,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2125,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2153,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2265,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2293,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2321,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2349,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2377,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2405,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2461,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2489,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2545,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2573,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2601,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2629,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2657,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2685,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2713,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2736,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2761,11 +2993,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2778,12 +3005,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2816,7 +3043,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2835,7 +3062,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +3081,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +3100,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +3119,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +3138,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2930,7 +3157,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,7 +3176,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -2968,7 +3195,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2987,7 +3214,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3233,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3252,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3271,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3063,7 +3290,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3082,7 +3309,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3101,7 +3328,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3120,7 +3347,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3139,7 +3366,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3158,7 +3385,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3404,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3196,7 +3423,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3215,7 +3442,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3234,7 +3461,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3253,7 +3480,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3272,7 +3499,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3291,7 +3518,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3537,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3329,7 +3556,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3348,7 +3575,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3367,7 +3594,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3386,7 +3613,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3405,7 +3632,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3424,7 +3651,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3443,7 +3670,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3462,7 +3689,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3481,7 +3708,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3500,7 +3727,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3519,7 +3746,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3538,7 +3765,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3557,7 +3784,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3576,7 +3803,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3595,7 +3822,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3614,7 +3841,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3633,7 +3860,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3652,7 +3879,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3671,7 +3898,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3690,7 +3917,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,7 +3936,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -3728,7 +3955,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3747,7 +3974,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -3766,7 +3993,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3785,7 +4012,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -3804,7 +4031,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -3823,7 +4050,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -3842,7 +4069,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -3861,7 +4088,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3874,11 +4101,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3891,12 +4113,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3929,7 +4151,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3948,7 +4170,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3967,7 +4189,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3986,7 +4208,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4005,7 +4227,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4024,7 +4246,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4043,7 +4265,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4062,7 +4284,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4081,7 +4303,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -4100,7 +4322,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4341,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4360,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4157,7 +4379,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4176,7 +4398,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4417,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4214,7 +4436,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4233,7 +4455,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4252,7 +4474,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4271,7 +4493,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4290,7 +4512,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4309,7 +4531,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4328,7 +4550,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4347,7 +4569,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4366,7 +4588,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4385,7 +4607,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4404,7 +4626,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4423,7 +4645,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4442,7 +4664,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4461,7 +4683,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4480,7 +4702,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4499,7 +4721,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -4518,7 +4740,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -4537,7 +4759,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -4556,7 +4778,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4575,7 +4797,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -4594,7 +4816,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -4613,7 +4835,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -4632,7 +4854,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -4651,7 +4873,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4670,7 +4892,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -4689,7 +4911,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -4708,7 +4930,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -4727,7 +4949,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4746,7 +4968,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -4765,7 +4987,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -4784,7 +5006,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -4803,7 +5025,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -4822,7 +5044,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -4841,7 +5063,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4860,7 +5082,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4879,7 +5101,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4898,7 +5120,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -4917,7 +5139,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -4936,7 +5158,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -4955,7 +5177,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -4974,7 +5196,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4987,11 +5209,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5004,12 +5221,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5038,7 +5255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5065,7 +5282,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5092,7 +5309,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5119,7 +5336,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5146,7 +5363,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5173,7 +5390,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -5196,7 +5413,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -5215,7 +5432,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -5234,7 +5451,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -5253,7 +5470,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -5272,7 +5489,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5299,7 +5516,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5326,7 +5543,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5355,7 +5572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5382,7 +5599,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -5409,7 +5626,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5436,7 +5653,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5680,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5490,7 +5707,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5517,7 +5734,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5544,7 +5761,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5571,7 +5788,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5598,7 +5815,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5625,7 +5842,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -5654,7 +5871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -5683,7 +5900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5710,7 +5927,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -5739,7 +5956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -5766,7 +5983,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -5795,7 +6012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -5822,7 +6039,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -5849,7 +6066,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5876,7 +6093,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5903,7 +6120,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5930,7 +6147,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5959,7 +6176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -5986,7 +6203,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -6015,7 +6232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6044,7 +6261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -6069,7 +6286,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -6094,7 +6311,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6113,7 +6330,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6132,7 +6349,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -6151,7 +6368,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6170,7 +6387,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -6189,7 +6406,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,7 +6425,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -6227,7 +6444,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -6246,7 +6463,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -6265,7 +6482,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6284,7 +6501,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -6303,7 +6520,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -6322,7 +6539,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -6341,7 +6558,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -6360,7 +6577,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -6379,7 +6596,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -6398,7 +6615,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -6419,11 +6636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6436,12 +6648,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6470,7 +6682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6709,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6524,7 +6736,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6551,7 +6763,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6578,7 +6790,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6605,7 +6817,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -6628,7 +6840,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -6647,7 +6859,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -6666,7 +6878,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -6685,7 +6897,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -6704,7 +6916,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6731,7 +6943,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6970,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -6814,7 +7026,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -6841,7 +7053,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -6868,7 +7080,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6895,7 +7107,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -6922,7 +7134,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -6949,7 +7161,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -6976,7 +7188,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -7003,7 +7215,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -7030,7 +7242,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -7057,7 +7269,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -7086,7 +7298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -7115,7 +7327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -7142,7 +7354,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -7171,7 +7383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7198,7 +7410,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -7227,7 +7439,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -7254,7 +7466,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7281,7 +7493,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7308,7 +7520,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -7335,7 +7547,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -7362,7 +7574,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -7391,7 +7603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -7418,7 +7630,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -7447,7 +7659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -7476,7 +7688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -7501,7 +7713,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -7526,7 +7738,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -7545,7 +7757,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -7564,7 +7776,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -7583,7 +7795,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -7602,7 +7814,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -7621,7 +7833,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -7640,7 +7852,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -7659,7 +7871,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -7678,7 +7890,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -7697,7 +7909,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -7716,7 +7928,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -7735,7 +7947,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -7754,7 +7966,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -7773,7 +7985,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -7792,7 +8004,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -7811,7 +8023,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,7 +8042,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -7851,10 +8063,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{225A0C85-A24A-9E4D-BDD7-9EFB28D2DB5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="v2.7.2" sheetId="5" r:id="rId2"/>
-    <sheet name="v2.7.1" sheetId="4" r:id="rId3"/>
-    <sheet name="v2.7.0" sheetId="3" r:id="rId4"/>
-    <sheet name="v2.6" sheetId="2" r:id="rId5"/>
+    <sheet name="v2.8.0" sheetId="6" r:id="rId2"/>
+    <sheet name="v2.7.2" sheetId="5" r:id="rId3"/>
+    <sheet name="v2.7.1" sheetId="4" r:id="rId4"/>
+    <sheet name="v2.7.0" sheetId="3" r:id="rId5"/>
+    <sheet name="v2.6" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -302,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -613,14 +608,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -628,9 +623,9 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -681,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -709,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -737,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -765,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -793,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -821,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -849,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -877,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -905,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -933,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -961,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -989,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1101,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1185,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1213,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1465,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1653,7 +1648,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1663,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A13D41-BB76-0A42-A152-BEE174488282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1671,12 +1665,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1703,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1728,7 +1722,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1741,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +1760,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1779,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1804,7 +1798,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1823,7 +1817,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1836,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1861,7 +1855,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -1880,7 +1874,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +1893,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1912,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1937,7 +1931,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1956,7 +1950,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1975,7 +1969,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1994,7 +1988,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,7 +2007,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2032,7 +2026,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +2045,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2064,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,7 +2083,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2108,7 +2102,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +2121,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2146,7 +2140,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2159,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2184,7 +2178,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +2197,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +2216,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +2235,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2260,7 +2254,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2279,7 +2273,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2298,7 +2292,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +2311,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2330,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,7 +2349,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2374,7 +2368,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2393,7 +2387,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2412,7 +2406,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2431,7 +2425,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +2444,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,7 +2463,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2488,7 +2482,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2507,7 +2501,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2526,7 +2520,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2545,7 +2539,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2564,7 +2558,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -2583,7 +2577,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2602,7 +2596,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2621,7 +2615,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2640,7 +2634,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2659,7 +2653,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2678,7 +2672,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -2697,7 +2691,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2716,7 +2710,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -2735,7 +2729,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -2754,7 +2748,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2767,12 +2761,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2780,12 +2778,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2816,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +2835,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +2854,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2875,7 +2873,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2894,7 +2892,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2913,7 +2911,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,7 +2930,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -2951,7 +2949,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -2970,7 +2968,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2989,7 +2987,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +3006,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3027,7 +3025,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3046,7 +3044,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3065,7 +3063,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3082,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +3101,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,7 +3120,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3141,7 +3139,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3160,7 +3158,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3179,7 +3177,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3198,7 +3196,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3217,7 +3215,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3236,7 +3234,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3253,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3274,7 +3272,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3291,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3312,7 +3310,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +3329,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3350,7 +3348,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3369,7 +3367,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3388,7 +3386,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3407,7 +3405,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3426,7 +3424,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3445,7 +3443,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3464,7 +3462,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3483,7 +3481,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3502,7 +3500,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +3519,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3540,7 +3538,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3559,7 +3557,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3578,7 +3576,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3597,7 +3595,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3616,7 +3614,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3635,7 +3633,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3654,7 +3652,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3673,7 +3671,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3692,7 +3690,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,7 +3709,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -3730,7 +3728,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3749,7 +3747,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -3768,7 +3766,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3787,7 +3785,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -3806,7 +3804,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -3825,7 +3823,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -3844,7 +3842,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -3863,7 +3861,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3876,7 +3874,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3886,20 +3883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3912,23 +3909,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3941,21 +3923,13 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3968,21 +3942,13 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3995,21 +3961,13 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4022,21 +3980,13 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4049,21 +3999,13 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4077,16 +4019,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4105,7 +4043,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4124,7 +4062,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,7 +4081,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -4162,7 +4100,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4175,21 +4113,13 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4202,21 +4132,13 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4229,23 +4151,13 @@
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4258,21 +4170,13 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4285,21 +4189,13 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4312,21 +4208,13 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4339,21 +4227,13 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4366,21 +4246,13 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4393,21 +4265,13 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4420,21 +4284,13 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4447,21 +4303,13 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4474,21 +4322,13 @@
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4501,21 +4341,13 @@
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4528,23 +4360,13 @@
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4557,23 +4379,13 @@
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4586,21 +4398,13 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4613,23 +4417,13 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4642,21 +4436,13 @@
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4669,23 +4455,13 @@
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4698,21 +4474,13 @@
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4725,21 +4493,13 @@
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -4752,21 +4512,13 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -4779,21 +4531,13 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -4806,21 +4550,13 @@
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4833,23 +4569,13 @@
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -4862,21 +4588,13 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -4889,23 +4607,13 @@
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -4918,23 +4626,13 @@
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -4947,19 +4645,13 @@
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4972,19 +4664,13 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -5003,7 +4689,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -5022,7 +4708,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -5041,7 +4727,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5060,7 +4746,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -5071,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5079,7 +4765,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -5098,7 +4784,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -5117,7 +4803,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -5136,7 +4822,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -5155,7 +4841,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -5174,7 +4860,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -5193,7 +4879,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -5212,7 +4898,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -5231,7 +4917,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -5250,7 +4936,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -5269,7 +4955,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -5288,19 +4974,11 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -5309,7 +4987,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5319,7 +4996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5327,12 +5004,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5361,7 +5038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5388,7 +5065,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5092,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5442,7 +5119,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5469,7 +5146,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5496,7 +5173,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -5519,7 +5196,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -5538,7 +5215,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -5557,7 +5234,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -5576,7 +5253,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -5595,7 +5272,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5622,7 +5299,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5649,7 +5326,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5678,7 +5355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5705,7 +5382,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -5732,7 +5409,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5759,7 +5436,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5786,7 +5463,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5490,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5840,7 +5517,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5867,7 +5544,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5894,7 +5571,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5921,7 +5598,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5948,7 +5625,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -5977,7 +5654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -6006,7 +5683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -6033,7 +5710,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -6062,7 +5739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -6089,7 +5766,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -6118,7 +5795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -6145,7 +5822,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -6172,7 +5849,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -6199,7 +5876,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -6226,7 +5903,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -6253,7 +5930,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -6282,7 +5959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -6309,7 +5986,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -6338,7 +6015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6367,7 +6044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -6392,7 +6069,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -6417,7 +6094,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6436,7 +6113,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6455,7 +6132,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -6474,7 +6151,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6493,7 +6170,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -6512,7 +6189,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -6531,7 +6208,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -6550,7 +6227,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -6569,7 +6246,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -6588,7 +6265,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6607,7 +6284,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,7 +6303,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -6645,7 +6322,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -6664,7 +6341,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -6683,7 +6360,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -6702,7 +6379,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -6721,7 +6398,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -6742,7 +6419,1438 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizer/cellorganizer-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matamala/Documents/MATLAB/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6193B453-8AFB-844C-AF78-84739EB0E536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v2.8.0" sheetId="6" r:id="rId1"/>
@@ -20,10 +21,15 @@
     <sheet name="v2.7.0" sheetId="3" r:id="rId5"/>
     <sheet name="v2.6" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -344,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -662,12 +668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,7 +754,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -767,7 +773,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -786,16 +792,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -805,7 +811,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -824,16 +830,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -843,7 +849,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -862,16 +868,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -881,7 +887,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -900,7 +906,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -919,7 +925,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -938,7 +944,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -957,7 +963,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -976,7 +982,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -995,7 +1001,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -1014,7 +1020,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
@@ -1033,16 +1039,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1052,16 +1058,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1090,13 +1096,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="b">
         <v>0</v>
@@ -1109,16 +1115,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1128,7 +1134,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -1147,7 +1153,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
@@ -1166,16 +1172,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1204,16 +1210,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
@@ -1232,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1242,13 +1248,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -1280,7 +1286,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -1318,7 +1324,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>14</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
@@ -1365,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1375,7 +1381,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
@@ -1384,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1394,7 +1400,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1413,16 +1419,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1432,7 +1438,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
@@ -1451,16 +1457,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -1489,16 +1495,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
@@ -1527,7 +1533,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1546,16 +1552,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
@@ -1584,7 +1590,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>14</v>
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1603,26 +1609,21 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
@@ -1633,34 +1634,24 @@
       <c r="D51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>14</v>
@@ -1671,15 +1662,10 @@
       <c r="D53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>14</v>
@@ -1688,17 +1674,12 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>14</v>
@@ -1707,17 +1688,12 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>14</v>
@@ -1728,15 +1704,10 @@
       <c r="D56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>14</v>
@@ -1747,15 +1718,10 @@
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>14</v>
@@ -1766,21 +1732,16 @@
       <c r="D58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
@@ -1788,21 +1749,21 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>14</v>
@@ -1816,7 +1777,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>14</v>
@@ -1825,132 +1786,6 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2997,7 +2832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -4105,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5213,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -6640,7 +6475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">

--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matamala/Documents/MATLAB/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6193B453-8AFB-844C-AF78-84739EB0E536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.8.0" sheetId="6" r:id="rId1"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId2"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId1"/>
+    <sheet name="v2.8.0" sheetId="6" r:id="rId2"/>
     <sheet name="v2.7.2" sheetId="5" r:id="rId3"/>
     <sheet name="v2.7.1" sheetId="4" r:id="rId4"/>
     <sheet name="v2.7.0" sheetId="3" r:id="rId5"/>
     <sheet name="v2.6" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -306,51 +292,12 @@
   </si>
   <si>
     <t>demo3D47</t>
-  </si>
-  <si>
-    <t>demo3D48</t>
-  </si>
-  <si>
-    <t>demo3D49</t>
-  </si>
-  <si>
-    <t>demo3D50</t>
-  </si>
-  <si>
-    <t>demo3D51</t>
-  </si>
-  <si>
-    <t>demo3D52</t>
-  </si>
-  <si>
-    <t>demo3D53</t>
-  </si>
-  <si>
-    <t>demo3D54</t>
-  </si>
-  <si>
-    <t>demo3D55</t>
-  </si>
-  <si>
-    <t>demo3D56</t>
-  </si>
-  <si>
-    <t>demo3D57</t>
-  </si>
-  <si>
-    <t>demo3D58</t>
-  </si>
-  <si>
-    <t>demo3D59</t>
-  </si>
-  <si>
-    <t>demo3D60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -661,1141 +608,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
-  <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1803,9 +623,9 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1968,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2108,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2248,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2276,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2304,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2332,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2388,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2416,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2444,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2500,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2528,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2556,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2584,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2612,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2640,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2668,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2696,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2724,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2780,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2803,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2828,24 +1648,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +1703,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +1722,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2916,7 +1741,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2935,7 +1760,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +1779,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2973,7 +1798,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2992,7 +1817,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -3011,7 +1836,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -3030,7 +1855,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -3049,7 +1874,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3068,7 +1893,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +1912,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3106,7 +1931,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +1950,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +1969,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3163,7 +1988,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3182,7 +2007,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3201,7 +2026,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3220,7 +2045,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3239,7 +2064,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3258,7 +2083,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3277,7 +2102,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3296,7 +2121,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +2140,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3334,7 +2159,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3353,7 +2178,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3372,7 +2197,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +2216,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3410,7 +2235,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3429,7 +2254,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3448,7 +2273,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3467,7 +2292,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3486,7 +2311,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3505,7 +2330,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3524,7 +2349,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3543,7 +2368,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3562,7 +2387,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3581,7 +2406,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3600,7 +2425,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3619,7 +2444,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3638,7 +2463,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3657,7 +2482,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3676,7 +2501,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3695,7 +2520,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3714,7 +2539,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3733,7 +2558,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3752,7 +2577,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3771,7 +2596,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -3790,7 +2615,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3809,7 +2634,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -3828,7 +2653,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3847,7 +2672,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -3866,7 +2691,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -3885,7 +2710,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -3904,7 +2729,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -3923,7 +2748,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3936,11 +2761,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -3948,12 +2778,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3986,7 +2816,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4005,7 +2835,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4024,7 +2854,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4043,7 +2873,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +2892,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4081,7 +2911,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4100,7 +2930,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4119,7 +2949,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4138,7 +2968,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,7 +2987,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4176,7 +3006,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4195,7 +3025,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +3044,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4233,7 +3063,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4252,7 +3082,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4271,7 +3101,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4290,7 +3120,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +3139,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4328,7 +3158,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4347,7 +3177,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4366,7 +3196,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4385,7 +3215,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +3234,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4423,7 +3253,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4442,7 +3272,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4461,7 +3291,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4480,7 +3310,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4499,7 +3329,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4518,7 +3348,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4537,7 +3367,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4556,7 +3386,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -4575,7 +3405,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -4594,7 +3424,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -4613,7 +3443,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4632,7 +3462,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -4651,7 +3481,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -4670,7 +3500,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -4689,7 +3519,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -4708,7 +3538,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4727,7 +3557,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -4746,7 +3576,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -4765,7 +3595,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -4784,7 +3614,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4803,7 +3633,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -4822,7 +3652,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -4841,7 +3671,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -4860,7 +3690,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -4879,7 +3709,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -4898,7 +3728,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4917,7 +3747,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4936,7 +3766,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4955,7 +3785,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -4974,7 +3804,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -4993,7 +3823,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -5012,7 +3842,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -5031,7 +3861,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5044,11 +3874,1129 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -5056,12 +5004,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +5038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +5065,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5144,7 +5092,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5171,7 +5119,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5198,7 +5146,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5173,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -5248,7 +5196,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -5267,7 +5215,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -5286,7 +5234,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -5305,7 +5253,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -5324,7 +5272,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5351,7 +5299,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5378,7 +5326,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5407,7 +5355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5434,7 +5382,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -5461,7 +5409,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5488,7 +5436,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5515,7 +5463,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5542,7 +5490,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5569,7 +5517,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5596,7 +5544,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5623,7 +5571,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5650,7 +5598,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5677,7 +5625,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -5706,7 +5654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -5735,7 +5683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5762,7 +5710,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -5791,7 +5739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -5818,7 +5766,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -5847,7 +5795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -5874,7 +5822,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -5901,7 +5849,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5928,7 +5876,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5955,7 +5903,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5982,7 +5930,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -6011,7 +5959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -6038,7 +5986,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -6067,7 +6015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6096,7 +6044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -6121,7 +6069,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -6146,7 +6094,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6165,7 +6113,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6184,7 +6132,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -6203,7 +6151,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6222,7 +6170,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -6241,7 +6189,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -6260,7 +6208,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -6279,7 +6227,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -6298,7 +6246,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -6317,7 +6265,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6336,7 +6284,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -6355,7 +6303,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -6374,7 +6322,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -6393,7 +6341,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -6412,7 +6360,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -6431,7 +6379,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -6450,7 +6398,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -6471,11 +6419,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -6483,12 +6436,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6517,7 +6470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6544,7 +6497,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6571,7 +6524,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6598,7 +6551,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6625,7 +6578,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6652,7 +6605,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -6675,7 +6628,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -6694,7 +6647,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -6713,7 +6666,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -6732,7 +6685,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -6751,7 +6704,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6778,7 +6731,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6805,7 +6758,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6834,7 +6787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -6861,7 +6814,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -6888,7 +6841,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -6915,7 +6868,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6942,7 +6895,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -6969,7 +6922,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -6996,7 +6949,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -7023,7 +6976,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -7050,7 +7003,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -7077,7 +7030,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -7104,7 +7057,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -7133,7 +7086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -7162,7 +7115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -7189,7 +7142,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -7218,7 +7171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7245,7 +7198,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -7274,7 +7227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -7301,7 +7254,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7328,7 +7281,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7355,7 +7308,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -7382,7 +7335,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -7409,7 +7362,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -7438,7 +7391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -7465,7 +7418,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -7494,7 +7447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -7523,7 +7476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -7548,7 +7501,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -7573,7 +7526,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -7592,7 +7545,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -7611,7 +7564,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -7630,7 +7583,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -7649,7 +7602,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -7668,7 +7621,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -7687,7 +7640,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -7706,7 +7659,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -7725,7 +7678,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -7744,7 +7697,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -7763,7 +7716,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -7782,7 +7735,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -7801,7 +7754,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -7820,7 +7773,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -7839,7 +7792,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -7858,7 +7811,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -7877,7 +7830,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -7898,5 +7851,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/demo_lists.xlsx
+++ b/demo_lists.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Documents/code/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDAB88E-6F2C-AA48-ABA6-C3CC9B52FDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="v2.8.0" sheetId="6" r:id="rId2"/>
-    <sheet name="v2.7.2" sheetId="5" r:id="rId3"/>
-    <sheet name="v2.7.1" sheetId="4" r:id="rId4"/>
-    <sheet name="v2.7.0" sheetId="3" r:id="rId5"/>
-    <sheet name="v2.6" sheetId="2" r:id="rId6"/>
+    <sheet name="v2.9.0" sheetId="7" r:id="rId2"/>
+    <sheet name="v2.8.0" sheetId="6" r:id="rId3"/>
+    <sheet name="v2.7.2" sheetId="5" r:id="rId4"/>
+    <sheet name="v2.7.1" sheetId="4" r:id="rId5"/>
+    <sheet name="v2.7.0" sheetId="3" r:id="rId6"/>
+    <sheet name="v2.6" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -297,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -608,14 +621,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -623,9 +636,9 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -676,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -704,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -732,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -760,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -788,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -816,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -844,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -872,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -900,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -928,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -956,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -984,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1348,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1657,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F138E6-9BB9-A64E-ABFA-79423E98AAA9}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1665,12 +1678,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1716,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1735,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1754,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +1773,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1792,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1798,7 +1811,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1817,7 +1830,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1836,7 +1849,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1855,7 +1868,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -1874,7 +1887,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1906,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1912,7 +1925,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +1944,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1950,7 +1963,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1969,7 +1982,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1988,7 +2001,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2020,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2026,7 +2039,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,7 +2058,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2077,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2096,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2102,7 +2115,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,7 +2134,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2140,7 +2153,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2159,7 +2172,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2178,7 +2191,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2197,7 +2210,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2216,7 +2229,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2235,7 +2248,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2267,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2273,7 +2286,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2292,7 +2305,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2311,7 +2324,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2330,7 +2343,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2349,7 +2362,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2368,7 +2381,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2387,7 +2400,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2406,7 +2419,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2425,7 +2438,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,7 +2457,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -2463,7 +2476,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2482,7 +2495,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -2501,7 +2514,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2520,7 +2533,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2539,7 +2552,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2558,7 +2571,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -2577,7 +2590,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2596,7 +2609,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2615,7 +2628,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,7 +2647,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2653,7 +2666,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2672,7 +2685,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -2691,7 +2704,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2710,7 +2723,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -2729,7 +2742,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -2748,7 +2761,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2761,16 +2774,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2778,12 +2786,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2816,7 +2824,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2835,7 +2843,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +2862,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2881,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +2900,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2919,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2930,7 +2938,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,7 +2957,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -2968,7 +2976,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2987,7 +2995,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3014,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3033,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3052,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3063,7 +3071,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3082,7 +3090,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3101,7 +3109,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3120,7 +3128,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3139,7 +3147,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3158,7 +3166,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3185,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3196,7 +3204,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3215,7 +3223,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3234,7 +3242,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3253,7 +3261,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3272,7 +3280,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3291,7 +3299,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3318,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3329,7 +3337,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3348,7 +3356,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3367,7 +3375,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3386,7 +3394,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3405,7 +3413,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3424,7 +3432,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3443,7 +3451,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3462,7 +3470,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3481,7 +3489,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3500,7 +3508,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3519,7 +3527,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3538,7 +3546,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3557,7 +3565,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3576,7 +3584,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3595,7 +3603,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3614,7 +3622,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3633,7 +3641,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3652,7 +3660,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -3671,7 +3679,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3690,7 +3698,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,7 +3717,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -3728,7 +3736,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -3747,7 +3755,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -3766,7 +3774,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3785,7 +3793,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -3804,7 +3812,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -3823,7 +3831,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -3842,7 +3850,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -3861,7 +3869,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3883,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -3891,12 +3899,12 @@
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3929,7 +3937,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3948,7 +3956,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3967,7 +3975,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3986,7 +3994,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4005,7 +4013,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -4024,7 +4032,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -4043,7 +4051,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -4062,7 +4070,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4081,7 +4089,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -4100,7 +4108,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4127,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4146,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4157,7 +4165,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4176,7 +4184,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4203,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4214,7 +4222,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4233,7 +4241,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4252,7 +4260,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4271,7 +4279,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4290,7 +4298,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4309,7 +4317,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4347,7 +4355,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4366,7 +4374,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4385,7 +4393,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4404,7 +4412,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4423,7 +4431,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4442,7 +4450,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4461,7 +4469,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4480,7 +4488,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -4499,7 +4507,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -4518,7 +4526,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -4537,7 +4545,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -4556,7 +4564,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4575,7 +4583,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -4594,7 +4602,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -4613,7 +4621,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -4632,7 +4640,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -4651,7 +4659,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4670,7 +4678,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -4689,7 +4697,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -4708,7 +4716,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -4727,7 +4735,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4746,7 +4754,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -4765,7 +4773,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -4784,7 +4792,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -4803,7 +4811,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -4822,7 +4830,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -4841,7 +4849,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4860,7 +4868,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4879,7 +4887,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -4898,7 +4906,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -4917,7 +4925,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -4936,7 +4944,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -4955,7 +4963,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -4974,7 +4982,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4996,20 +5004,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5022,23 +5030,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5051,21 +5044,13 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5078,21 +5063,13 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5105,21 +5082,13 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5132,21 +5101,13 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5159,21 +5120,13 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -5187,16 +5140,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -5215,7 +5164,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -5234,7 +5183,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -5253,7 +5202,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -5272,7 +5221,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5285,21 +5234,13 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5312,21 +5253,13 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5339,23 +5272,13 @@
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5368,21 +5291,13 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -5395,21 +5310,13 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5422,21 +5329,13 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5449,21 +5348,13 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5476,21 +5367,13 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5503,21 +5386,13 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5530,21 +5405,13 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5557,21 +5424,13 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5584,21 +5443,13 @@
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5611,21 +5462,13 @@
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -5638,23 +5481,13 @@
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -5667,23 +5500,13 @@
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5696,21 +5519,13 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -5723,23 +5538,13 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -5752,21 +5557,13 @@
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -5779,23 +5576,13 @@
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -5808,21 +5595,13 @@
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -5835,21 +5614,13 @@
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5862,21 +5633,13 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5889,21 +5652,13 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -5916,21 +5671,13 @@
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5943,23 +5690,13 @@
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -5972,21 +5709,13 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -5999,23 +5728,13 @@
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -6028,23 +5747,13 @@
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -6057,19 +5766,13 @@
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -6082,19 +5785,13 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6113,7 +5810,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6132,7 +5829,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -6151,7 +5848,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6170,7 +5867,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -6181,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -6189,7 +5886,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,7 +5905,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -6227,7 +5924,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -6246,7 +5943,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -6265,7 +5962,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -6284,7 +5981,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -6303,7 +6000,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -6322,7 +6019,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -6341,7 +6038,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -6360,7 +6057,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -6379,7 +6076,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -6398,19 +6095,11 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -6428,7 +6117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -6436,12 +6125,12 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6470,7 +6159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6186,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6524,7 +6213,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6551,7 +6240,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6578,7 +6267,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6605,7 +6294,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -6628,7 +6317,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -6647,7 +6336,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -6666,7 +6355,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
@@ -6685,7 +6374,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -6704,7 +6393,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6731,7 +6420,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6447,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -6814,7 +6503,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -6841,7 +6530,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -6868,7 +6557,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6895,7 +6584,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -6922,7 +6611,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -6949,7 +6638,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -6976,7 +6665,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -7003,7 +6692,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -7030,7 +6719,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -7057,7 +6746,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -7086,7 +6775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -7115,7 +6804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -7142,7 +6831,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -7171,7 +6860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -7198,7 +6887,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -7227,7 +6916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -7254,7 +6943,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7281,7 +6970,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7308,7 +6997,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -7335,7 +7024,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -7362,7 +7051,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -7391,7 +7080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -7418,7 +7107,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -7447,7 +7136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -7476,7 +7165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -7501,7 +7190,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -7526,7 +7215,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -7545,7 +7234,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -7564,7 +7253,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
@@ -7583,7 +7272,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -7602,7 +7291,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -7621,7 +7310,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -7640,7 +7329,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -7659,7 +7348,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -7678,7 +7367,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -7697,7 +7386,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -7716,7 +7405,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -7735,7 +7424,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -7754,7 +7443,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -7773,7 +7462,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -7792,7 +7481,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -7811,7 +7500,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,7 +7519,1439 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView windowProtection="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
